--- a/GameFeel/KOF98/KOF角色.xlsx
+++ b/GameFeel/KOF98/KOF角色.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
   <si>
     <t>陈国汉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,10 @@
   <si>
     <t>攻击成长</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加开场觉醒值[31ff01]X[-]</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -423,8 +427,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -705,12 +710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:AD52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X45" sqref="X45"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,7 +811,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>13</v>
       </c>
@@ -870,7 +874,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="6" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>13</v>
       </c>
@@ -933,7 +937,7 @@
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>13</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>13</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>13</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>13</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>13</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>13</v>
       </c>
@@ -1326,7 +1330,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="14" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
@@ -1452,7 +1456,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="2:30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>13</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="18" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>13</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>13</v>
       </c>
@@ -1656,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>13</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>13</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>13</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>2.6100000000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>13</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>13</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>13</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>13</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>13</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="28" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>13</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>2.5700000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>13</v>
       </c>
@@ -2206,7 +2210,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>13</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>13</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>13</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>13</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>13</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>13</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>13</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>13</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>13</v>
       </c>
@@ -2726,23 +2730,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C4:F38">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="防"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="4"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="列杀"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C4:F38"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2751,10 +2739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:X13"/>
+  <dimension ref="C3:AO20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3038,6 +3026,11 @@
         <v>1.3</v>
       </c>
     </row>
+    <row r="20" spans="41:41" x14ac:dyDescent="0.2">
+      <c r="AO20" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
